--- a/GraficosSB/Mamdani.xlsx
+++ b/GraficosSB/Mamdani.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\GraficosSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B7B63D-08A3-4BE2-80BA-C139F7FB6B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E102EFAF-6C32-4339-A4AC-995F10626DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{68DABEA3-42C4-4A58-8090-5EA86A4F038C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{68DABEA3-42C4-4A58-8090-5EA86A4F038C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana-01" sheetId="1" r:id="rId1"/>
-    <sheet name="Semana-02" sheetId="2" r:id="rId2"/>
-    <sheet name="Semana-03" sheetId="3" r:id="rId3"/>
+    <sheet name="TABLA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,57 +26,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
-    <t>Vendedor</t>
+    <t>LENGUAJE</t>
   </si>
   <si>
-    <t>Ventas</t>
+    <t>FLEXIBILIDAD COGNITIVA</t>
   </si>
   <si>
-    <t>José Luis</t>
+    <t>PROBABILIDAD FINAL DE TENER TEA</t>
   </si>
   <si>
-    <t>Francisco</t>
+    <t>POR EQUIVALENCIA DEL TRIANGULO RECTANGULO</t>
   </si>
   <si>
-    <t>Guadalupe</t>
+    <t>TABLA REGLAS BORROSAS</t>
   </si>
   <si>
-    <t>María</t>
+    <t>BAJO</t>
   </si>
   <si>
-    <t>Antonio</t>
+    <t>MEDIO</t>
   </si>
   <si>
-    <t>Pedro</t>
+    <t>ALTO</t>
   </si>
   <si>
-    <t>Alejandro</t>
+    <t>NADA</t>
   </si>
   <si>
-    <t>Manuel</t>
+    <t>ALGO</t>
   </si>
   <si>
-    <t>Margarita</t>
+    <t>ALTA</t>
   </si>
   <si>
-    <t>Juan Carlos</t>
+    <t>MUY BAJO</t>
   </si>
   <si>
-    <t>Roberto</t>
+    <t>BAJA</t>
   </si>
   <si>
-    <t>Fernando</t>
+    <t>MEDIA</t>
   </si>
   <si>
-    <t>Daniel</t>
+    <t>MUY ALTA</t>
   </si>
   <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Jorge</t>
+    <t>FLEX. COGN.</t>
   </si>
 </sst>
 </file>
@@ -87,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,19 +91,117 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -116,21 +210,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1907,6 +2036,389 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Probabilidad ejemplo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Semana-01'!$C$51:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Semana-01'!$D$51:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4908-4FFC-80BB-9F86CC597C7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1259987200"/>
+        <c:axId val="1260004672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1259987200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1260004672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1260004672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1259987200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2027,6 +2539,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3575,20 +4127,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3615,16 +4683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3651,16 +4719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3687,127 +4755,109 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector recto 9">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flecha: hacia la izquierda 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCF0D16-5D15-4A4A-B470-D062FE68BD39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4062AF2-0B6C-4FA6-97F2-77AE49B1796D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4000500" y="2000250"/>
-          <a:ext cx="7000875" cy="1600200"/>
+        <a:xfrm>
+          <a:off x="9239250" y="4933950"/>
+          <a:ext cx="1895475" cy="209550"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="leftArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Conector recto 11">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134108E9-10EC-4892-899C-E61381D1EE37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1B2C3B-56AB-4066-9A9D-CB3CCD072ACD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10077450" y="4829175"/>
-          <a:ext cx="1038225" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58BD67EB-95EB-4087-BEAB-5931F41C5654}" name="Tabla2" displayName="Tabla2" ref="A1:B14" totalsRowShown="0">
-  <autoFilter ref="A1:B14" xr:uid="{D11E3BE0-ECE6-4ACD-A997-D5E82B683A4A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4C24F2A3-75BA-4E97-9468-1513081E9E5C}" name="Vendedor"/>
-    <tableColumn id="2" xr3:uid="{E531F45C-8010-420B-9280-3A249FB8414D}" name="Ventas" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3E1221AB-5140-473F-9540-08B5E30319AA}" name="Tabla3" displayName="Tabla3" ref="A1:B14" totalsRowShown="0">
-  <autoFilter ref="A1:B14" xr:uid="{B301C46E-69B6-4932-8096-2AF4D48B3D2B}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D4087926-DC99-42C7-81F3-2BB5562C0262}" name="Vendedor"/>
-    <tableColumn id="2" xr3:uid="{650F2196-213C-4150-8183-C76BBDA1D73F}" name="Ventas" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4107,10 +5157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6D287-4351-476D-8765-4A10D831161A}">
-  <dimension ref="B2:L43"/>
+  <dimension ref="B2:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,46 +5168,64 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>0</v>
       </c>
@@ -4171,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>26</v>
       </c>
@@ -4191,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>35</v>
       </c>
@@ -4211,7 +5279,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>66.5</v>
       </c>
@@ -4225,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>68</v>
       </c>
@@ -4245,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>70</v>
       </c>
@@ -4264,8 +5332,15 @@
       <c r="L27">
         <v>0.25</v>
       </c>
+      <c r="P27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>100</v>
       </c>
@@ -4279,13 +5354,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>9</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34">
@@ -4391,7 +5476,135 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1.2</v>
+      </c>
+      <c r="D53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1.5</v>
+      </c>
+      <c r="D54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>2.5</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="P27:T27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4399,263 +5612,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C266F-F6AE-4436-BC60-A929E5EC7D71}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA471D-993B-464E-B14A-8DB5919E56BA}">
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2826</v>
-      </c>
+    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6394</v>
-      </c>
+    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4466</v>
-      </c>
+    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
-        <v>4522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5654</v>
-      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D0E446-9B50-4619-A151-21563DF72EE1}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2802</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>